--- a/biology/Médecine/Ligament_sphéno-mandibulaire/Ligament_sphéno-mandibulaire.xlsx
+++ b/biology/Médecine/Ligament_sphéno-mandibulaire/Ligament_sphéno-mandibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_sph%C3%A9no-mandibulaire</t>
+          <t>Ligament_sphéno-mandibulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sphéno-mandibulaire (ou ligament sphéno-maxillaire ou long ligament latéral interne de Morris ) est une bande fibreuse mince et plate formant une syndesmose entre l'os sphénoïde et la mandibule.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_sph%C3%A9no-mandibulaire</t>
+          <t>Ligament_sphéno-mandibulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sphéno-mandibulaire descend en s'élargissant de l'épine de l'os sphénoïde pour se fixer sur la lingula de la mandibule.
 Son rôle est de limiter l'ouverture du mandibule. Il est lâche lorsque l'articulation temporo-mandibulaire est en position fermée et il se tend à son ouverture.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_sph%C3%A9no-mandibulaire</t>
+          <t>Ligament_sphéno-mandibulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Rapport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Latéralement il est en contact avec le nerf ptérygoïdien latéral et le nerf auriculo-temporal.
 A son extrémité supérieure, il est en contact médian avec la corde du tympan.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_sph%C3%A9no-mandibulaire</t>
+          <t>Ligament_sphéno-mandibulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament est dérivé du cartilage de Meckel.
 </t>
